--- a/biology/Zoologie/Cannellito/Cannellito.xlsx
+++ b/biology/Zoologie/Cannellito/Cannellito.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cannellito, né en 2004, est un ours brun vivant dans les Pyrénées. Par sa mère Cannelle, il est le dernier porteur des gènes de souche pyrénéenne. Son père est Néré, il vit essentiellement dans la partie occidentale du territoire des ours pyrénéens.
 </t>
